--- a/projects/test_building/input/Parameter_CoolingTechnology_EfficiencyCoefficient.xlsx
+++ b/projects/test_building/input/Parameter_CoolingTechnology_EfficiencyCoefficient.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4875CF6-B044-8F4A-BD7D-FF9AB1403376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="2080" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="2085" windowWidth="22260" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="lifetime_tuned" sheetId="3" r:id="rId1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -574,7 +573,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,7 +770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -853,7 +852,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -885,7 +884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -928,7 +927,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -958,7 +957,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -972,7 +971,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,7 +1138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1198,7 +1197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1241,7 +1240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1271,7 +1270,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1285,7 +1284,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1464,7 +1463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1523,7 +1522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1566,7 +1565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1596,7 +1595,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1610,7 +1609,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1818,7 +1817,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1856,7 +1855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1915,7 +1914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1958,7 +1957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1988,7 +1987,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4289,61 +4288,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F9207350-223A-6944-9DFD-0B58C3F39AB8}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{F9207350-223A-6944-9DFD-0B58C3F39AB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12CCBE7C-132B-214D-811B-71AD274B185F}" name="id_cooling_technology"/>
-    <tableColumn id="2" xr3:uid="{D576F425-E1A4-A74B-A212-11585BB4BF55}" name="id_cooling_technology_efficiency_class"/>
-    <tableColumn id="3" xr3:uid="{9AB520CE-F99B-1B41-AD2D-5F9E0F7C67FE}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{163A7491-5B73-B540-A693-2F633EFA07BB}" name="value"/>
+    <tableColumn id="1" name="id_cooling_technology"/>
+    <tableColumn id="2" name="id_cooling_technology_efficiency_class"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F36"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="min"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="max"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min"/>
+    <tableColumn id="5" name="max"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
-  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id_scenario"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="id_building_component"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="min"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="max"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pdf_literature"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="pdf"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="sum_pdf_literature"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="sum_pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="7" name="id_building_component"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="min"/>
+    <tableColumn id="2" name="max"/>
+    <tableColumn id="3" name="pdf_literature"/>
+    <tableColumn id="8" name="pdf"/>
+    <tableColumn id="4" name="sum_pdf_literature"/>
+    <tableColumn id="9" name="sum_pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="id_building_component" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="min" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="max" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component" dataDxfId="2"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min" dataDxfId="1"/>
+    <tableColumn id="5" name="max" dataDxfId="0"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4611,20 +4610,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4745,20 +4744,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>50.926829268292664</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -5167,7 +5166,7 @@
       </c>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5195,7 +5194,7 @@
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -5223,7 +5222,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5251,7 +5250,7 @@
       </c>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -5279,7 +5278,7 @@
       </c>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5307,7 +5306,7 @@
       </c>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -5335,7 +5334,7 @@
       </c>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>24.708333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -5397,7 +5396,7 @@
       </c>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5425,7 +5424,7 @@
       </c>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -5453,7 +5452,7 @@
       </c>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5481,7 +5480,7 @@
       </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -5510,7 +5509,7 @@
       <c r="J27" s="19"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5539,7 +5538,7 @@
       <c r="J28" s="19"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -5568,7 +5567,7 @@
       <c r="J29" s="19"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5597,7 +5596,7 @@
       <c r="J30" s="19"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -5626,7 +5625,7 @@
       <c r="J31" s="19"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -5658,7 +5657,7 @@
       </c>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -5690,7 +5689,7 @@
       <c r="J33" s="19"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -5719,7 +5718,7 @@
       <c r="J34" s="19"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -5748,7 +5747,7 @@
       <c r="J35" s="19"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -5777,7 +5776,7 @@
       <c r="J36" s="19"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -5805,7 +5804,7 @@
       </c>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -5833,7 +5832,7 @@
       </c>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -5861,7 +5860,7 @@
       </c>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5889,7 +5888,7 @@
       </c>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -5917,7 +5916,7 @@
       </c>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -5945,7 +5944,7 @@
       </c>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -5973,7 +5972,7 @@
       </c>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -6005,28 +6004,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6756,27 +6755,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>0.61176470588235299</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>4.2352941176470589</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>3.2470588235294118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>3.9529411764705884</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>6.2117647058823531</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>3.5764705882352943</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>4.0470588235294116</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>2.2588235294117647</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>28.229411764705883</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7922,7 +7921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8356,20 +8355,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>

--- a/projects/test_building/input/Parameter_CoolingTechnology_EfficiencyCoefficient.xlsx
+++ b/projects/test_building/input/Parameter_CoolingTechnology_EfficiencyCoefficient.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lifetime_tuned (2)'!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4614,7 +4614,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
